--- a/caphase3/target/test-classes/com/softweb/cure/excels/TrialDetailsData.xlsx
+++ b/caphase3/target/test-classes/com/softweb/cure/excels/TrialDetailsData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14535" windowHeight="6210"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="18030" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,13 +468,13 @@
       <c r="A2" s="1">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>12</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>110</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>100</v>
       </c>
       <c r="E2" s="1" t="s">

--- a/caphase3/target/test-classes/com/softweb/cure/excels/TrialDetailsData.xlsx
+++ b/caphase3/target/test-classes/com/softweb/cure/excels/TrialDetailsData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="18030" windowHeight="10260"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14850" windowHeight="10260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:R32"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>EstimatedTrialLength</t>
   </si>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,12 +507,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
